--- a/Cron/ncaamb/bets_20251119.xlsx
+++ b/Cron/ncaamb/bets_20251119.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
   <si>
     <t>type</t>
   </si>
@@ -25,7 +25,7 @@
     <t>game_id</t>
   </si>
   <si>
-    <t>team</t>
+    <t>bet_on</t>
   </si>
   <si>
     <t>opponent</t>
@@ -58,94 +58,64 @@
     <t>2025-11-19</t>
   </si>
   <si>
-    <t>20251119_Alabama_Illinois</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>0.7684</t>
+    <t>20251119_Arizona_Connecticut</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>0.3722</t>
+  </si>
+  <si>
+    <t>draftkings</t>
+  </si>
+  <si>
+    <t>20251119_Arkansas St._Saint Mary's</t>
+  </si>
+  <si>
+    <t>Arkansas St.</t>
+  </si>
+  <si>
+    <t>Saint Mary's</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>0.1702</t>
   </si>
   <si>
     <t>fanduel</t>
   </si>
   <si>
-    <t>20251119_Arizona_Connecticut</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>draftkings</t>
-  </si>
-  <si>
-    <t>20251119_Arkansas St._Saint Mary's</t>
-  </si>
-  <si>
-    <t>Arkansas St.</t>
-  </si>
-  <si>
-    <t>Saint Mary's</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>0.7729</t>
-  </si>
-  <si>
-    <t>20251119_Campbell_Weber St.</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>Weber St.</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>0.7479</t>
-  </si>
-  <si>
-    <t>20251119_Cleveland St._Valparaiso</t>
-  </si>
-  <si>
-    <t>Cleveland St.</t>
-  </si>
-  <si>
-    <t>Valparaiso</t>
-  </si>
-  <si>
-    <t>-148</t>
-  </si>
-  <si>
-    <t>1.676</t>
+    <t>20251119_Bowling Green_William &amp; Mary</t>
+  </si>
+  <si>
+    <t>William &amp; Mary</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>0.3501</t>
   </si>
   <si>
     <t>20251119_Creighton_North Dakota</t>
@@ -163,7 +133,7 @@
     <t>36</t>
   </si>
   <si>
-    <t>0.2271</t>
+    <t>0.1733</t>
   </si>
   <si>
     <t>20251119_Dayton_Marquette</t>
@@ -175,6 +145,9 @@
     <t>Marquette</t>
   </si>
   <si>
+    <t>0.3798</t>
+  </si>
+  <si>
     <t>20251119_Harvard_Penn St.</t>
   </si>
   <si>
@@ -190,141 +163,87 @@
     <t>8</t>
   </si>
   <si>
-    <t>20251119_Hofstra_Temple</t>
-  </si>
-  <si>
-    <t>Hofstra</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>2.85</t>
+    <t>0.2052</t>
+  </si>
+  <si>
+    <t>20251119_La Salle_Villanova</t>
+  </si>
+  <si>
+    <t>La Salle</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>0.2522</t>
+  </si>
+  <si>
+    <t>20251119_Maryland_Mount St. Mary's</t>
+  </si>
+  <si>
+    <t>Mount St. Mary's</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>20251119_Michigan_Middle Tennessee</t>
+  </si>
+  <si>
+    <t>Middle Tennessee</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>0.1876</t>
+  </si>
+  <si>
+    <t>20251119_Oklahoma St._South Florida</t>
+  </si>
+  <si>
+    <t>South Florida</t>
+  </si>
+  <si>
+    <t>Oklahoma St.</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>0.3953</t>
+  </si>
+  <si>
+    <t>20251119_Richmond_VMI</t>
+  </si>
+  <si>
+    <t>VMI</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>0.2352</t>
   </si>
   <si>
     <t>betmgm</t>
   </si>
   <si>
-    <t>20251119_Indiana St._Louisiana Tech</t>
-  </si>
-  <si>
-    <t>Louisiana Tech</t>
-  </si>
-  <si>
-    <t>Indiana St.</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>0.5354</t>
-  </si>
-  <si>
-    <t>20251119_Jacksonville St._South Alabama</t>
-  </si>
-  <si>
-    <t>Jacksonville St.</t>
-  </si>
-  <si>
-    <t>South Alabama</t>
-  </si>
-  <si>
-    <t>-160</t>
-  </si>
-  <si>
-    <t>1.625</t>
-  </si>
-  <si>
-    <t>0.7431</t>
-  </si>
-  <si>
-    <t>20251119_La Salle_Villanova</t>
-  </si>
-  <si>
-    <t>La Salle</t>
-  </si>
-  <si>
-    <t>Villanova</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>20251119_Maryland_Mount St. Mary's</t>
-  </si>
-  <si>
-    <t>Mount St. Mary's</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>0.2521</t>
-  </si>
-  <si>
-    <t>20251119_Michigan_Middle Tennessee</t>
-  </si>
-  <si>
-    <t>Middle Tennessee</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>20251119_Oklahoma St._South Florida</t>
-  </si>
-  <si>
-    <t>Oklahoma St.</t>
-  </si>
-  <si>
-    <t>South Florida</t>
-  </si>
-  <si>
-    <t>-210</t>
-  </si>
-  <si>
-    <t>1.476</t>
-  </si>
-  <si>
-    <t>20251119_Richmond_VMI</t>
-  </si>
-  <si>
-    <t>VMI</t>
-  </si>
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>20251119_Sam Houston St._Wyoming</t>
-  </si>
-  <si>
-    <t>Sam Houston St.</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>-130</t>
-  </si>
-  <si>
-    <t>1.769</t>
-  </si>
-  <si>
     <t>20251119_Southern Utah_Washington St.</t>
   </si>
   <si>
@@ -340,6 +259,9 @@
     <t>7.8</t>
   </si>
   <si>
+    <t>0.2121</t>
+  </si>
+  <si>
     <t>20251119_TCU_UMKC</t>
   </si>
   <si>
@@ -355,52 +277,16 @@
     <t>31</t>
   </si>
   <si>
-    <t>20251119_Toledo_Youngstown St.</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Youngstown St.</t>
-  </si>
-  <si>
-    <t>-120</t>
-  </si>
-  <si>
-    <t>1.833</t>
-  </si>
-  <si>
-    <t>20251119_UC Irvine_Utah Valley</t>
-  </si>
-  <si>
-    <t>UC Irvine</t>
-  </si>
-  <si>
-    <t>Utah Valley</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>0.5593</t>
-  </si>
-  <si>
     <t>OU</t>
   </si>
   <si>
-    <t>20251119_Bellarmine_Notre Dame</t>
-  </si>
-  <si>
     <t>OVER</t>
   </si>
   <si>
     <t>betonlineag</t>
   </si>
   <si>
-    <t>20251119_Maine_Merrimack</t>
+    <t>20251119_North Florida_Wofford</t>
   </si>
 </sst>
 </file>
@@ -462,13 +348,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L24" totalsRowShown="0">
-  <autoFilter ref="A1:L24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L16" totalsRowShown="0">
+  <autoFilter ref="A1:L16"/>
   <tableColumns count="12">
     <tableColumn id="1" name="type" dataDxfId="0"/>
     <tableColumn id="2" name="date" dataDxfId="0"/>
     <tableColumn id="3" name="game_id" dataDxfId="0"/>
-    <tableColumn id="4" name="team" dataDxfId="0"/>
+    <tableColumn id="4" name="bet_on" dataDxfId="0"/>
     <tableColumn id="5" name="opponent" dataDxfId="0"/>
     <tableColumn id="6" name="odds" dataDxfId="0"/>
     <tableColumn id="7" name="decimal" dataDxfId="0"/>
@@ -767,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,7 +723,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="2">
-        <v>99.79000000000001</v>
+        <v>15.37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
@@ -868,13 +754,13 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2">
-        <v>138.21</v>
+        <v>189.42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -887,25 +773,25 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2">
-        <v>1213.96</v>
+        <v>13.78</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
@@ -921,25 +807,25 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2">
-        <v>88.47</v>
+        <v>523.8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
@@ -955,28 +841,28 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I6" s="2">
-        <v>29.52</v>
+        <v>17.75</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1007,10 +893,10 @@
         <v>49</v>
       </c>
       <c r="I7" s="2">
-        <v>717.5</v>
+        <v>64.13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1032,19 +918,19 @@
         <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2">
-        <v>138.21</v>
+        <v>63.91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1057,28 +943,28 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2">
-        <v>514.74</v>
+        <v>194.57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1091,28 +977,28 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I10" s="2">
-        <v>113.15</v>
+        <v>575.33</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1125,28 +1011,28 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I11" s="2">
-        <v>31.16</v>
+        <v>10.68</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1159,28 +1045,28 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="2">
+        <v>46.99</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="I12" s="2">
-        <v>20.75</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1208,13 +1094,13 @@
         <v>80</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="I13" s="2">
-        <v>399.48</v>
+        <v>65.44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1227,362 +1113,90 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2">
-        <v>328.58</v>
+        <v>437.16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="2">
-        <v>1827.28</v>
+        <v>2.44</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="K15" s="2">
+        <v>141.44</v>
+      </c>
+      <c r="L15" s="2">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2">
+        <v>3.94</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="2">
-        <v>14.1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="2">
-        <v>57.57</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="2">
-        <v>32.32</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="2">
-        <v>483.36</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="2">
-        <v>681.53</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="2">
-        <v>40.88</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="2">
-        <v>20.25</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23" s="2">
-        <v>152.8</v>
-      </c>
-      <c r="L23" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="2">
-        <v>131.1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>128</v>
+      <c r="K16" s="2">
+        <v>164.94</v>
+      </c>
+      <c r="L16" s="2">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
